--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/47.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/47.xlsx
@@ -479,13 +479,13 @@
         <v>-0.07038674879370042</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.536252075698167</v>
+        <v>-1.517453710520115</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2210245416385608</v>
+        <v>0.2265717701935844</v>
       </c>
       <c r="G2" t="n">
-        <v>0.116069391583755</v>
+        <v>0.1183925794414884</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.07971662178180131</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.432100191174638</v>
+        <v>-1.411896568757359</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1968698530773075</v>
+        <v>0.201657120469103</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09144811370478942</v>
+        <v>0.09408419086969452</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1019914047460002</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.424350539055877</v>
+        <v>-1.395414072388919</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1876661500651793</v>
+        <v>0.1956250049760647</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1306989489362339</v>
+        <v>0.1335539876240916</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1365272293706392</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.502331337260824</v>
+        <v>-1.47223114194263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2157292103230342</v>
+        <v>0.2262277749318985</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08481644618650779</v>
+        <v>0.08494757913200862</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1771918189854768</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.503343805584225</v>
+        <v>-1.473959657140534</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3246031007259463</v>
+        <v>0.3357231745044169</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09546383144049864</v>
+        <v>0.09946552100064264</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2123596161922296</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.439772993288129</v>
+        <v>-1.421302155513491</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3799283953930859</v>
+        <v>0.3900177032278522</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0265214477442819</v>
+        <v>0.02832315342339567</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2323984112339534</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.16663892574749</v>
+        <v>-1.154325237204624</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4220397585984788</v>
+        <v>0.4275961359636536</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.028314080619429</v>
+        <v>-0.02679964757906357</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2329143584672949</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5868690677337958</v>
+        <v>-0.5792584775293335</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3617454401778727</v>
+        <v>0.3638039224618975</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02248323894971756</v>
+        <v>-0.02237101354519592</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2126751633565906</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01936158891993645</v>
+        <v>0.02588530047843368</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3126870804643195</v>
+        <v>0.3134336233726591</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05889123390683938</v>
+        <v>-0.06062767807354111</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1652144901093348</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8013232008789959</v>
+        <v>0.8125469611725136</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1235311611430908</v>
+        <v>0.1212488379706995</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.007007721618589088</v>
+        <v>-0.004411899218349353</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.08461494174393069</v>
       </c>
       <c r="E12" t="n">
-        <v>1.57340714747812</v>
+        <v>1.589651774782628</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2620509319662035</v>
+        <v>-0.2662173001090695</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1009464084037869</v>
+        <v>0.1013800620049548</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.0305640479045338</v>
       </c>
       <c r="E13" t="n">
-        <v>2.318546018419869</v>
+        <v>2.33598852993351</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6219974491111001</v>
+        <v>-0.6303301853968321</v>
       </c>
       <c r="G13" t="n">
-        <v>0.22364110134181</v>
+        <v>0.2237386886500897</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1693472739409893</v>
       </c>
       <c r="E14" t="n">
-        <v>3.008277255403118</v>
+        <v>3.029132883023841</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.158088447780159</v>
+        <v>-1.17493262710991</v>
       </c>
       <c r="G14" t="n">
-        <v>0.394419500751943</v>
+        <v>0.3957405889377792</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3156022562304007</v>
       </c>
       <c r="E15" t="n">
-        <v>3.714040867295366</v>
+        <v>3.734290233763401</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.741063438950165</v>
+        <v>-1.764793012799725</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5391067134521476</v>
+        <v>0.5442391959469824</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4555438741506702</v>
       </c>
       <c r="E16" t="n">
-        <v>4.32770767684001</v>
+        <v>4.345496623298044</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.246888343876955</v>
+        <v>-2.273777306832069</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7201500778519503</v>
+        <v>0.7237931340541665</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5866565534396639</v>
       </c>
       <c r="E17" t="n">
-        <v>4.936252372541325</v>
+        <v>4.955164792885928</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.792747832104811</v>
+        <v>-2.819222048999737</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9310039252484912</v>
+        <v>0.9398990083981849</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.710367599388848</v>
       </c>
       <c r="E18" t="n">
-        <v>5.298442787855977</v>
+        <v>5.311480452242144</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.332316598472687</v>
+        <v>-3.359429402316168</v>
       </c>
       <c r="G18" t="n">
-        <v>1.12253243600227</v>
+        <v>1.133106020854374</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8272772776942214</v>
       </c>
       <c r="E19" t="n">
-        <v>5.616318806480823</v>
+        <v>5.627022914357751</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.833230422110302</v>
+        <v>-3.865238449305363</v>
       </c>
       <c r="G19" t="n">
-        <v>1.357091460421301</v>
+        <v>1.364650817288916</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9329813910694079</v>
       </c>
       <c r="E20" t="n">
-        <v>5.967797794870426</v>
+        <v>5.977577263001405</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.336565020913929</v>
+        <v>-4.370866349853563</v>
       </c>
       <c r="G20" t="n">
-        <v>1.530535823109499</v>
+        <v>1.534922982537348</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.022143047249991</v>
       </c>
       <c r="E21" t="n">
-        <v>6.181829938913501</v>
+        <v>6.185278430419834</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.646119891745902</v>
+        <v>-4.680500815333851</v>
       </c>
       <c r="G21" t="n">
-        <v>1.673814119046416</v>
+        <v>1.679113109886003</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.091649110161487</v>
       </c>
       <c r="E22" t="n">
-        <v>6.319548807881859</v>
+        <v>6.316545558469552</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.924832903716755</v>
+        <v>-4.963262785717297</v>
       </c>
       <c r="G22" t="n">
-        <v>1.870939261930035</v>
+        <v>1.8774690726953</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.140565447478358</v>
       </c>
       <c r="E23" t="n">
-        <v>6.390589928626766</v>
+        <v>6.386765725983556</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.183181274211667</v>
+        <v>-5.228855184089945</v>
       </c>
       <c r="G23" t="n">
-        <v>1.976389057653683</v>
+        <v>1.981298919101505</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.169866983827922</v>
       </c>
       <c r="E24" t="n">
-        <v>6.482106086490105</v>
+        <v>6.476731465486601</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.300649556870636</v>
+        <v>-5.349669491581555</v>
       </c>
       <c r="G24" t="n">
-        <v>2.067435576595926</v>
+        <v>2.076820426049049</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.181179707410923</v>
       </c>
       <c r="E25" t="n">
-        <v>6.491164628381167</v>
+        <v>6.4802202117576</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.325447101825182</v>
+        <v>-5.376586510887799</v>
       </c>
       <c r="G25" t="n">
-        <v>2.129878645560716</v>
+        <v>2.137059241688071</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.177793720652075</v>
       </c>
       <c r="E26" t="n">
-        <v>6.546077006750148</v>
+        <v>6.535779106043934</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.326843820174935</v>
+        <v>-5.372894051110767</v>
       </c>
       <c r="G26" t="n">
-        <v>2.156304678722179</v>
+        <v>2.165992658751645</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.161655597185155</v>
       </c>
       <c r="E27" t="n">
-        <v>6.435015330879741</v>
+        <v>6.419137875822636</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.317621209621827</v>
+        <v>-5.359683169252404</v>
       </c>
       <c r="G27" t="n">
-        <v>2.165663301586201</v>
+        <v>2.173611787845582</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.134003189528531</v>
       </c>
       <c r="E28" t="n">
-        <v>6.345417983465452</v>
+        <v>6.327747361618707</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.239616014589811</v>
+        <v>-5.286648522775546</v>
       </c>
       <c r="G28" t="n">
-        <v>2.127410296581917</v>
+        <v>2.133185025549367</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.095200927165091</v>
       </c>
       <c r="E29" t="n">
-        <v>6.249537233239303</v>
+        <v>6.230566260509732</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.085276807180069</v>
+        <v>-5.123589889371013</v>
       </c>
       <c r="G29" t="n">
-        <v>2.045361937383738</v>
+        <v>2.048391413385145</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.046360574784347</v>
       </c>
       <c r="E30" t="n">
-        <v>6.095672544116071</v>
+        <v>6.071064684491994</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.887857682530258</v>
+        <v>-4.921254499106274</v>
       </c>
       <c r="G30" t="n">
-        <v>1.994214599352322</v>
+        <v>1.995544836348309</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9893275713921542</v>
       </c>
       <c r="E31" t="n">
-        <v>5.9297399644827</v>
+        <v>5.906498327174539</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.75718888666443</v>
+        <v>-4.784380065314874</v>
       </c>
       <c r="G31" t="n">
-        <v>1.887585826960519</v>
+        <v>1.891202046652959</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.926073114215067</v>
       </c>
       <c r="E32" t="n">
-        <v>5.741689221427739</v>
+        <v>5.723257418576413</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.509582439128405</v>
+        <v>-4.535609889127613</v>
       </c>
       <c r="G32" t="n">
-        <v>1.819050260355694</v>
+        <v>1.824107112686612</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8592885281012452</v>
       </c>
       <c r="E33" t="n">
-        <v>5.477377656476262</v>
+        <v>5.463105512640357</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.359118667698719</v>
+        <v>-4.380988593404875</v>
       </c>
       <c r="G33" t="n">
-        <v>1.723107298220517</v>
+        <v>1.728452643031537</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7901614187814332</v>
       </c>
       <c r="E34" t="n">
-        <v>5.26234158299926</v>
+        <v>5.250812862367368</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.144921845072923</v>
+        <v>-4.160059466349132</v>
       </c>
       <c r="G34" t="n">
-        <v>1.576143251634012</v>
+        <v>1.581410526598408</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.72159245868652</v>
       </c>
       <c r="E35" t="n">
-        <v>5.004406128802506</v>
+        <v>4.991013490582472</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.007209990192347</v>
+        <v>-4.023821789744257</v>
       </c>
       <c r="G35" t="n">
-        <v>1.510683515002027</v>
+        <v>1.515656198279554</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.654423429986222</v>
       </c>
       <c r="E36" t="n">
-        <v>4.712367569886061</v>
+        <v>4.694365151191166</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.846709974026772</v>
+        <v>-3.860126094192861</v>
       </c>
       <c r="G36" t="n">
-        <v>1.468674618470328</v>
+        <v>1.472046869892068</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5905351443593544</v>
       </c>
       <c r="E37" t="n">
-        <v>4.395301525919937</v>
+        <v>4.379342341492147</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.706642300532258</v>
+        <v>-3.71853483884783</v>
       </c>
       <c r="G37" t="n">
-        <v>1.374878577117304</v>
+        <v>1.37599534187643</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5293483397400829</v>
       </c>
       <c r="E38" t="n">
-        <v>4.112633788281049</v>
+        <v>4.101075791456673</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.61100155409241</v>
+        <v>-3.620267469013566</v>
       </c>
       <c r="G38" t="n">
-        <v>1.26599187838018</v>
+        <v>1.265627145815485</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.471023447698617</v>
       </c>
       <c r="E39" t="n">
-        <v>3.849307855143196</v>
+        <v>3.842080295123732</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.553727257902722</v>
+        <v>-3.557587140905522</v>
       </c>
       <c r="G39" t="n">
-        <v>1.17813890410139</v>
+        <v>1.17731002190169</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4138732708236627</v>
       </c>
       <c r="E40" t="n">
-        <v>3.509603995338891</v>
+        <v>3.50358163857668</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.473101538683057</v>
+        <v>-3.477199290749789</v>
       </c>
       <c r="G40" t="n">
-        <v>1.091879042630266</v>
+        <v>1.093736251090964</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3569390881726445</v>
       </c>
       <c r="E41" t="n">
-        <v>3.295330322707823</v>
+        <v>3.28668286735289</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.383233996408968</v>
+        <v>-3.38422786215173</v>
       </c>
       <c r="G41" t="n">
-        <v>1.030353294363306</v>
+        <v>1.030960775357347</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2989546134966488</v>
       </c>
       <c r="E42" t="n">
-        <v>2.999783500058724</v>
+        <v>2.989890586681871</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.298065283028547</v>
+        <v>-3.299697430759524</v>
       </c>
       <c r="G42" t="n">
-        <v>1.013346266212863</v>
+        <v>1.016839891849276</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2400314973252914</v>
       </c>
       <c r="E43" t="n">
-        <v>2.668673422589799</v>
+        <v>2.649830533202345</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.204017344436026</v>
+        <v>-3.204686427418419</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9226278845947101</v>
+        <v>0.9238477259482062</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.181267267546607</v>
       </c>
       <c r="E44" t="n">
-        <v>2.440283745816075</v>
+        <v>2.423634131182206</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.169117683312502</v>
+        <v>-3.172361546431787</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9076945867452106</v>
+        <v>0.9103526210544787</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1243728529951075</v>
       </c>
       <c r="E45" t="n">
-        <v>2.179580471588238</v>
+        <v>2.160682689339876</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.078749091202465</v>
+        <v>-3.079692333529056</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8365351413890147</v>
+        <v>0.8393346772952883</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.07109636154547309</v>
       </c>
       <c r="E46" t="n">
-        <v>2.032099822188528</v>
+        <v>2.013884541177447</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.99027430279373</v>
+        <v>-2.99537567933405</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7978625109591274</v>
+        <v>0.7993348594727971</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.02211586044568572</v>
       </c>
       <c r="E47" t="n">
-        <v>1.812569243244569</v>
+        <v>1.790314457591386</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.913424907444151</v>
+        <v>-2.921117836939974</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7238486368357505</v>
+        <v>0.7275935497909836</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.02221065580217882</v>
       </c>
       <c r="E48" t="n">
-        <v>1.685283067451987</v>
+        <v>1.665719861745292</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.845673698829624</v>
+        <v>-2.849366768527333</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6546012928011598</v>
+        <v>0.6595001756768002</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.06292993545027027</v>
       </c>
       <c r="E49" t="n">
-        <v>1.502605115638499</v>
+        <v>1.479473264052152</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.808639925258158</v>
+        <v>-2.812680649741614</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5727499379815704</v>
+        <v>0.5785228371869907</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1001865880201627</v>
       </c>
       <c r="E50" t="n">
-        <v>1.409908761265652</v>
+        <v>1.387180677167313</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.725667536234706</v>
+        <v>-2.730085801617069</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5622562527381201</v>
+        <v>0.5720412101551892</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1351739763645635</v>
       </c>
       <c r="E51" t="n">
-        <v>1.319946071365991</v>
+        <v>1.297237504729307</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.659534447175591</v>
+        <v>-2.660671949237726</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4718849159850371</v>
+        <v>0.4811941352742427</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.167810574143272</v>
       </c>
       <c r="E52" t="n">
-        <v>1.269883172297833</v>
+        <v>1.24932579588804</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.575764281906952</v>
+        <v>-2.5764004291728</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3955527333693409</v>
+        <v>0.4043154637321802</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1991683163210466</v>
       </c>
       <c r="E53" t="n">
-        <v>1.232079068911635</v>
+        <v>1.218533340601737</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.53663116136612</v>
+        <v>-2.531996374143511</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3878689526836688</v>
+        <v>0.3972196465788933</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.229063517387544</v>
       </c>
       <c r="E54" t="n">
-        <v>1.153643269881835</v>
+        <v>1.140329311429101</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.478958891934854</v>
+        <v>-2.472841387547071</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3341922736057792</v>
+        <v>0.3431934829532271</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2588311148159916</v>
       </c>
       <c r="E55" t="n">
-        <v>1.131416540579782</v>
+        <v>1.130014942864615</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.457108483690354</v>
+        <v>-2.451223969001089</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3046861410267385</v>
+        <v>0.3145943024205106</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2886611643590306</v>
       </c>
       <c r="E56" t="n">
-        <v>1.118319713887971</v>
+        <v>1.11291459685063</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.425643895818276</v>
+        <v>-2.416795776560691</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2603857725124967</v>
+        <v>0.2660592546476072</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3195603092685526</v>
       </c>
       <c r="E57" t="n">
-        <v>1.009684912390344</v>
+        <v>1.014251388497157</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.391434664900831</v>
+        <v>-2.383432505621896</v>
       </c>
       <c r="G57" t="n">
-        <v>0.22528971693106</v>
+        <v>0.2319817665963397</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3514263680096491</v>
       </c>
       <c r="E58" t="n">
-        <v>1.015369983018313</v>
+        <v>1.024358384031549</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.416344435259898</v>
+        <v>-2.411230860306042</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2157963015974765</v>
+        <v>0.2253763256671582</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3846396137892644</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9962782459947451</v>
+        <v>1.009423256420019</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.349906995783086</v>
+        <v>-2.341356517815754</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2111889608053217</v>
+        <v>0.2203822951659451</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4195821800500983</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9922125147635426</v>
+        <v>1.012094708984176</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.370048406291337</v>
+        <v>-2.36023295284043</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1922625122851527</v>
+        <v>0.2012149279784607</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4563856930946508</v>
       </c>
       <c r="E61" t="n">
-        <v>1.097970320428949</v>
+        <v>1.125897368375889</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.392829553488554</v>
+        <v>-2.38638574153871</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2073617085587276</v>
+        <v>0.2201663832463763</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4943762452694863</v>
       </c>
       <c r="E62" t="n">
-        <v>1.12103203113747</v>
+        <v>1.155297984677852</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.380857420524666</v>
+        <v>-2.373700611303704</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1731518677206058</v>
+        <v>0.187773496104287</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5322757302242302</v>
       </c>
       <c r="E63" t="n">
-        <v>1.18310731793418</v>
+        <v>1.224710617215842</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.392767341579525</v>
+        <v>-2.384393740608451</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1418574477173397</v>
+        <v>0.1549926994117858</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5694292561769907</v>
       </c>
       <c r="E64" t="n">
-        <v>1.270387576697504</v>
+        <v>1.320275428531434</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.456582732066998</v>
+        <v>-2.449293570059182</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1670056970610156</v>
+        <v>0.1800634888295148</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6046299823855699</v>
       </c>
       <c r="E65" t="n">
-        <v>1.311449266418213</v>
+        <v>1.369909553363838</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.591557567910666</v>
+        <v>-2.582825333581664</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1332002336315777</v>
+        <v>0.1472784226922764</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6370243806102013</v>
       </c>
       <c r="E66" t="n">
-        <v>1.354539552309787</v>
+        <v>1.418073769365279</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.672687386569662</v>
+        <v>-2.667221277464646</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1371079954075025</v>
+        <v>0.1529000615698632</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6650860522737714</v>
       </c>
       <c r="E67" t="n">
-        <v>1.400157959406481</v>
+        <v>1.470658080511112</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.719926352904476</v>
+        <v>-2.716866380869231</v>
       </c>
       <c r="G67" t="n">
-        <v>0.09669343152482271</v>
+        <v>0.1116157508021407</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6888105376446276</v>
       </c>
       <c r="E68" t="n">
-        <v>1.437698577060324</v>
+        <v>1.515870890357769</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.815425902707657</v>
+        <v>-2.81507458839785</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05782989592311321</v>
+        <v>0.07373601725202582</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7079808714993362</v>
       </c>
       <c r="E69" t="n">
-        <v>1.428568064529406</v>
+        <v>1.514440016450118</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.860616145489274</v>
+        <v>-2.867339911029745</v>
       </c>
       <c r="G69" t="n">
-        <v>0.08979461875012543</v>
+        <v>0.1072651866148968</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7227317968448009</v>
       </c>
       <c r="E70" t="n">
-        <v>1.443114672669847</v>
+        <v>1.534092270575617</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.901407030429508</v>
+        <v>-2.90557400849305</v>
       </c>
       <c r="G70" t="n">
-        <v>0.08813136506463348</v>
+        <v>0.1072822643938457</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.73237046144666</v>
       </c>
       <c r="E71" t="n">
-        <v>1.433763978774622</v>
+        <v>1.527913164199483</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.970518362153183</v>
+        <v>-2.978854148042299</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08406624375410768</v>
+        <v>0.1037416748653233</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7365677324365463</v>
       </c>
       <c r="E72" t="n">
-        <v>1.424236407883141</v>
+        <v>1.517533534122584</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.043920180877444</v>
+        <v>-3.052554522937827</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03896260970858879</v>
+        <v>0.05968283493907381</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7348056157796595</v>
       </c>
       <c r="E73" t="n">
-        <v>1.465549384922671</v>
+        <v>1.55818901667258</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.103466431588018</v>
+        <v>-3.118109407195385</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.02007954156265346</v>
+        <v>-0.001044527162023325</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7260119293160604</v>
       </c>
       <c r="E74" t="n">
-        <v>1.447596369802592</v>
+        <v>1.53518707819038</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.15022935483463</v>
+        <v>-3.166035754132894</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.0436389475434007</v>
+        <v>-0.02290225445464348</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7096094860290793</v>
       </c>
       <c r="E75" t="n">
-        <v>1.428009377189504</v>
+        <v>1.509950390348576</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.158638941125632</v>
+        <v>-3.178179274806948</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.03015482122185463</v>
+        <v>-0.008180599079975603</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6847649876959595</v>
       </c>
       <c r="E76" t="n">
-        <v>1.439857696256012</v>
+        <v>1.516609504297311</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.224303306144666</v>
+        <v>-3.247033524965375</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.04285641931513294</v>
+        <v>-0.01943790501071451</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6517502136910714</v>
       </c>
       <c r="E77" t="n">
-        <v>1.330334240332363</v>
+        <v>1.395059022548867</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.242477112549728</v>
+        <v>-3.269388337609545</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.05506825110498256</v>
+        <v>-0.02707594164563044</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6104170906367327</v>
       </c>
       <c r="E78" t="n">
-        <v>1.36927706562205</v>
+        <v>1.433008287056132</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.232344500346913</v>
+        <v>-3.265759614543232</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02591099315304165</v>
+        <v>0.003229187019950317</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5617457324865197</v>
       </c>
       <c r="E79" t="n">
-        <v>1.389513623755874</v>
+        <v>1.45515694651156</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.189362170415124</v>
+        <v>-3.222211278223421</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01149910147597723</v>
+        <v>0.04200855356826859</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.506334006547986</v>
       </c>
       <c r="E80" t="n">
-        <v>1.427727593836847</v>
+        <v>1.488739178973308</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.143285407929854</v>
+        <v>-3.172391432544948</v>
       </c>
       <c r="G80" t="n">
-        <v>0.002211229410457808</v>
+        <v>0.03242852949858684</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4457950857733957</v>
       </c>
       <c r="E81" t="n">
-        <v>1.559977914017482</v>
+        <v>1.61711528301524</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.03016738449779</v>
+        <v>-3.058634822164329</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.02011308719987461</v>
+        <v>0.00813965838844893</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3810923690457689</v>
       </c>
       <c r="E82" t="n">
-        <v>1.632954922990387</v>
+        <v>1.691633561538287</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.912714959776416</v>
+        <v>-2.939123305238254</v>
       </c>
       <c r="G82" t="n">
-        <v>0.001653151991233335</v>
+        <v>0.02915325546444977</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3133933926815277</v>
       </c>
       <c r="E83" t="n">
-        <v>1.808515710426901</v>
+        <v>1.868018351809088</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.777018587772155</v>
+        <v>-2.802378479590662</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04588215978629551</v>
+        <v>0.07561274317437959</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2438063080820219</v>
       </c>
       <c r="E84" t="n">
-        <v>2.00716565500239</v>
+        <v>2.065775372513818</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.693705253090401</v>
+        <v>-2.720341098964665</v>
       </c>
       <c r="G84" t="n">
-        <v>0.00929911759494699</v>
+        <v>0.03680105083019367</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1740508577628297</v>
       </c>
       <c r="E85" t="n">
-        <v>2.158895621757005</v>
+        <v>2.208977428366141</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.481790753636995</v>
+        <v>-2.505946052118925</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05471320126493064</v>
+        <v>0.08461090291844368</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.106045540009419</v>
       </c>
       <c r="E86" t="n">
-        <v>2.313739843487095</v>
+        <v>2.364685297774507</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.2965371068056</v>
+        <v>-2.318754077376825</v>
       </c>
       <c r="G86" t="n">
-        <v>0.05681559783768119</v>
+        <v>0.08501223072374391</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.04185546568758927</v>
       </c>
       <c r="E87" t="n">
-        <v>2.428248791022482</v>
+        <v>2.477665784093963</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.034564587649451</v>
+        <v>-2.055508653768303</v>
       </c>
       <c r="G87" t="n">
-        <v>0.07278881044103608</v>
+        <v>0.1008463814128002</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.01621672229097678</v>
       </c>
       <c r="E88" t="n">
-        <v>2.5219033307785</v>
+        <v>2.570860443659713</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.733027734034009</v>
+        <v>-1.751834028180859</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08437730329924918</v>
+        <v>0.1102025645941155</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.06577184124324495</v>
       </c>
       <c r="E89" t="n">
-        <v>2.55487198303944</v>
+        <v>2.602839804582967</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.535250585946947</v>
+        <v>-1.54784239831841</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03592764442109045</v>
+        <v>0.05808057332125666</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1040807038785929</v>
       </c>
       <c r="E90" t="n">
-        <v>2.617164401597072</v>
+        <v>2.660005229931856</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.314974683936002</v>
+        <v>-1.32213027331561</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03345868552161431</v>
+        <v>0.0564539148763696</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1294257196140307</v>
       </c>
       <c r="E91" t="n">
-        <v>2.622293834488523</v>
+        <v>2.66410999608637</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9545249822327878</v>
+        <v>-0.9605070842303328</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04044410703240982</v>
+        <v>0.05898874520893452</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1405405090626561</v>
       </c>
       <c r="E92" t="n">
-        <v>2.552990987672348</v>
+        <v>2.597377355002012</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7497331364424459</v>
+        <v>-0.7519922826291208</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02854943399446919</v>
+        <v>0.04859020759105688</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1378617664558889</v>
       </c>
       <c r="E93" t="n">
-        <v>2.481344825616107</v>
+        <v>2.521767928388262</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4370322947598073</v>
+        <v>-0.4292003033496855</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04885864869501058</v>
+        <v>-0.03539281999376696</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1220341572719559</v>
       </c>
       <c r="E94" t="n">
-        <v>2.430893407076862</v>
+        <v>2.470354055021108</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1763180419597895</v>
+        <v>-0.1626332517355933</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09115603770681165</v>
+        <v>-0.08281659229363546</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.09604556271924083</v>
       </c>
       <c r="E95" t="n">
-        <v>2.286537381304131</v>
+        <v>2.320794186034363</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03379963117991647</v>
+        <v>0.04973807830469672</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1354972709063955</v>
+        <v>-0.1321250194846554</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.06348074108721942</v>
       </c>
       <c r="E96" t="n">
-        <v>2.13048551663408</v>
+        <v>2.161865935452768</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1995504544516152</v>
+        <v>0.2203347213531588</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1886055039135558</v>
+        <v>-0.1858077977693125</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.02906815324666297</v>
       </c>
       <c r="E97" t="n">
-        <v>1.961652154262097</v>
+        <v>1.988638704525491</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3286651724330883</v>
+        <v>0.3492469456699516</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2059479884362101</v>
+        <v>-0.206141943211416</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.002987225510422299</v>
       </c>
       <c r="E98" t="n">
-        <v>1.756713927509335</v>
+        <v>1.77628628202618</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4245684897242762</v>
+        <v>0.4459895138123448</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3357513068617318</v>
+        <v>-0.342217075955938</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.02842594604716112</v>
       </c>
       <c r="E99" t="n">
-        <v>1.597053162194966</v>
+        <v>1.611615628273003</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4760866595271545</v>
+        <v>0.498911721013097</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3235010500692471</v>
+        <v>-0.3281986591215607</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.04613080976956442</v>
       </c>
       <c r="E100" t="n">
-        <v>1.422806753816843</v>
+        <v>1.430698517453287</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5016984485851589</v>
+        <v>0.5212695832606505</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4148604583186619</v>
+        <v>-0.4264306535565726</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.05579426946738233</v>
       </c>
       <c r="E101" t="n">
-        <v>1.29336389851128</v>
+        <v>1.290657070547872</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5100354543156281</v>
+        <v>0.5219953888659807</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4172324398305352</v>
+        <v>-0.4292759335136023</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.06291048169898161</v>
       </c>
       <c r="E102" t="n">
-        <v>1.088798943212688</v>
+        <v>1.07744404997367</v>
       </c>
       <c r="F102" t="n">
-        <v>0.466329148540539</v>
+        <v>0.4770369159415279</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4534531891398953</v>
+        <v>-0.4654051947214503</v>
       </c>
     </row>
   </sheetData>
